--- a/demo/testData/testCase2.xlsx
+++ b/demo/testData/testCase2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12585" activeTab="8"/>
+    <workbookView windowWidth="27765" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -186,7 +186,7 @@
     <t>get</t>
   </si>
   <si>
-    <t>size</t>
+    <t>[size]</t>
   </si>
   <si>
     <t>[value]</t>
@@ -384,8 +384,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -421,13 +421,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -441,6 +434,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -449,18 +458,33 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -480,25 +504,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,33 +518,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,6 +532,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -581,6 +581,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -593,157 +737,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,23 +766,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,6 +791,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -826,122 +837,111 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,7 +950,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,28 +959,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -989,22 +989,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,7 +1090,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FBFBFB"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1342,10 +1342,10 @@
   <sheetPr/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2404,7 +2404,7 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/demo/testData/testCase2.xlsx
+++ b/demo/testData/testCase2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="12510"/>
+    <workbookView windowWidth="15180" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="107">
   <si>
     <t>Page</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>Template</t>
+  </si>
+  <si>
+    <t>ExcelModel</t>
   </si>
   <si>
     <t>SearchResult</t>
@@ -383,10 +386,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -421,6 +424,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -435,7 +445,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -443,22 +461,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -473,16 +476,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,14 +493,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,7 +507,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -527,7 +515,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,12 +529,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -575,181 +578,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,8 +769,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,6 +790,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -798,26 +816,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,174 +849,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1342,7 +1345,7 @@
   <sheetPr/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
@@ -1643,16 +1646,16 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1660,16 +1663,16 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1677,13 +1680,13 @@
         <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1691,16 +1694,16 @@
         <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1708,13 +1711,13 @@
         <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1739,10 +1742,10 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1781,7 +1784,7 @@
         <v>64</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>65</v>
@@ -1801,7 +1804,7 @@
         <v>67</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>68</v>
@@ -1821,7 +1824,7 @@
         <v>67</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>70</v>
@@ -1941,21 +1944,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="20.3714285714286" customWidth="1"/>
+    <col min="4" max="4" width="12.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:3">
+    <row r="1" s="5" customFormat="1" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>81</v>
       </c>
@@ -1965,8 +1969,11 @@
       <c r="C1" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1976,10 +1983,13 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1987,10 +1997,13 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1998,39 +2011,48 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C6 C7:C1048576">
-      <formula1>Boolean</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2 B7:B1048576">
       <formula1>Page</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A2 A7:A1048576">
       <formula1>Flow</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 C1:C6 C7:C1048576">
+      <formula1>Boolean</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2062,7 +2084,7 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
@@ -2073,10 +2095,10 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2119,16 +2141,16 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2136,7 +2158,7 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2145,7 +2167,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2153,7 +2175,7 @@
         <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -2200,16 +2222,16 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2217,7 +2239,7 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -2262,16 +2284,16 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2279,7 +2301,7 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -2288,7 +2310,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2296,7 +2318,7 @@
         <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -2311,7 +2333,7 @@
         <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -2325,7 +2347,7 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -2342,7 +2364,7 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -2356,7 +2378,7 @@
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -2370,7 +2392,7 @@
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -2421,16 +2443,16 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2438,16 +2460,16 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2455,16 +2477,16 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2472,16 +2494,16 @@
         <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/demo/testData/testCase2.xlsx
+++ b/demo/testData/testCase2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15180" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="108">
   <si>
     <t>Page</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>sleepTime</t>
+  </si>
+  <si>
+    <t>parallel</t>
   </si>
   <si>
     <t>FlowName</t>
@@ -387,8 +390,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -437,31 +440,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -477,9 +457,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,7 +489,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,15 +503,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,16 +525,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,31 +581,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,145 +743,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,36 +778,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -819,6 +792,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,110 +838,125 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,22 +968,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -992,16 +995,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1646,16 +1649,16 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1663,16 +1666,16 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1680,13 +1683,13 @@
         <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1694,16 +1697,16 @@
         <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1711,13 +1714,13 @@
         <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1742,10 +1745,10 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1816,7 +1819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -1828,6 +1831,9 @@
       </c>
       <c r="D4" s="3" t="s">
         <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1853,12 +1859,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1871,7 +1877,7 @@
     <col min="6" max="6" width="8.24761904761905" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:10">
+    <row r="1" s="5" customFormat="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
@@ -1902,8 +1908,11 @@
       <c r="J1" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1929,10 +1938,13 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>3</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1961,16 +1973,16 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1989,7 +2001,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2003,7 +2015,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2020,7 +2032,7 @@
         <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -2034,7 +2046,7 @@
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -2084,7 +2096,7 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
@@ -2095,10 +2107,10 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2141,16 +2153,16 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2158,7 +2170,7 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2167,7 +2179,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2175,7 +2187,7 @@
         <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -2222,16 +2234,16 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2239,7 +2251,7 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -2284,16 +2296,16 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2301,7 +2313,7 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -2310,7 +2322,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2318,7 +2330,7 @@
         <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -2333,7 +2345,7 @@
         <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -2347,7 +2359,7 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -2364,7 +2376,7 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -2378,7 +2390,7 @@
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -2392,7 +2404,7 @@
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -2443,16 +2455,16 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2460,16 +2472,16 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2477,16 +2489,16 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2494,16 +2506,16 @@
         <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/demo/testData/testCase2.xlsx
+++ b/demo/testData/testCase2.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="105">
   <si>
     <t>Page</t>
   </si>
@@ -276,21 +276,12 @@
     <t>default</t>
   </si>
   <si>
-    <t>operation</t>
-  </si>
-  <si>
-    <t>async</t>
+    <t>waitOrDelay</t>
   </si>
   <si>
     <t>redirect</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
     <t>implict</t>
   </si>
   <si>
@@ -300,10 +291,10 @@
     <t>retry</t>
   </si>
   <si>
-    <t>sleepTime</t>
-  </si>
-  <si>
     <t>parallel</t>
+  </si>
+  <si>
+    <t>threadCount</t>
   </si>
   <si>
     <t>FlowName</t>
@@ -389,10 +380,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -440,22 +431,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -472,15 +447,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -495,13 +462,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,16 +470,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,10 +500,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,6 +522,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -581,19 +572,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,157 +740,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,20 +769,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,21 +826,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -866,145 +839,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1649,16 +1640,16 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1666,16 +1657,16 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1683,13 +1674,13 @@
         <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
         <v>103</v>
-      </c>
-      <c r="D3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1697,16 +1688,16 @@
         <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1714,13 +1705,13 @@
         <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
         <v>103</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1859,25 +1850,24 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.37142857142857" customWidth="1"/>
-    <col min="2" max="2" width="9.5047619047619" customWidth="1"/>
-    <col min="3" max="3" width="10.1238095238095" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="6.87619047619048" customWidth="1"/>
-    <col min="6" max="6" width="8.24761904761905" customWidth="1"/>
+    <col min="2" max="2" width="10.1238095238095" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="6.87619047619048" customWidth="1"/>
+    <col min="5" max="5" width="8.24761904761905" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:11">
+    <row r="1" s="5" customFormat="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
@@ -1902,52 +1892,39 @@
       <c r="H1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
       <c r="E2">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
       <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>Boolean</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1973,16 +1950,16 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2001,7 +1978,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2015,7 +1992,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2032,7 +2009,7 @@
         <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -2046,7 +2023,7 @@
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -2096,7 +2073,7 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
@@ -2107,10 +2084,10 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2153,16 +2130,16 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2170,7 +2147,7 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2179,7 +2156,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2187,7 +2164,7 @@
         <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -2234,16 +2211,16 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2251,7 +2228,7 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -2296,16 +2273,16 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2313,7 +2290,7 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -2322,7 +2299,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2330,7 +2307,7 @@
         <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -2345,7 +2322,7 @@
         <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -2359,7 +2336,7 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -2376,7 +2353,7 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -2390,7 +2367,7 @@
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -2404,7 +2381,7 @@
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -2455,16 +2432,16 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2472,16 +2449,16 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2489,16 +2466,16 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
         <v>98</v>
-      </c>
-      <c r="D3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2506,16 +2483,16 @@
         <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
